--- a/Foothold_city/Resources/Data/data_02.xlsx
+++ b/Foothold_city/Resources/Data/data_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komle\source\PycharmProjects\Foothold-city\Foothold_city\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E0C06-C789-4121-B99A-D83CF31B89FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFB54B-F936-4BED-BC11-B180F6645C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="17280" windowHeight="9982" xr2:uid="{AEDA0D28-28DB-4494-9B59-32F55AB96656}"/>
+    <workbookView xWindow="990" yWindow="1500" windowWidth="17280" windowHeight="9983" xr2:uid="{AEDA0D28-28DB-4494-9B59-32F55AB96656}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Население</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Город</t>
-  </si>
-  <si>
-    <t>JJJJJJJJ</t>
   </si>
 </sst>
 </file>
@@ -452,9 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F9E42-1216-4665-829A-F76DC72AB643}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -462,11 +457,12 @@
     <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -500,9 +496,7 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -535,9 +529,6 @@
       <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -570,9 +561,6 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -605,9 +593,6 @@
       <c r="J4">
         <v>4</v>
       </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -640,9 +625,6 @@
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -675,9 +657,6 @@
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -710,9 +689,6 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -745,9 +721,6 @@
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -780,9 +753,6 @@
       <c r="J9">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -815,9 +785,6 @@
       <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -848,9 +815,6 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
         <v>1</v>
       </c>
     </row>
